--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560338/JX560338_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560338/JX560338_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89305463208</v>
+        <v>45441.83332145408</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1464_1468insacca']</t>
+          <t>['1407_1490del', '1331_1438insaacccgacaattcgagtcctggtgacagtagcacctctgtttgacatgagattactccacttgctccccaataacccgtgcaaccgtgcggccgatgtgccgtaggg', '1403_1512del', '1431_1556insacgacactggttcacgaagccacgctaattggggtctagattaacatgtcccccaggggcgtgagtgtacagtgtgataacgtataaccatcctagattaacgtcacccttatcataaccataag', '1289_1366del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89305465178</v>
+        <v>45441.83332148301</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['241_241del']</t>
+          <t>['222_336insatttataaatcattgtcatgtgtaagtgcagtatgggagccaacttgaggagggcgcttagtgggtcctacctttatggctgatgaagtccccatcgctatggtcacaagcagc', '204_334insccgggagtgttgctgacctggcgccgagcttcacctggttctgacagtagcagatccatatgacggttaatacgggcagctttccacagttctagccacgtcagcattcatgcttgatagcggcgatcta', '200_277insttcggtggcggcgcaggcagtgcgcccaatccatttgacaccgagcgcaccagatgcattagtcgggaatgttgaag', '177_245del', '214_329inscgctgcaacggggacggtatgtaacggttagttcattgggacttcacccgggcttgacacgctcgtggcacgcatcccgaagcggcttgagaaaacggctcaacgagctctggat']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8930546806</v>
+        <v>45441.83332150038</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3116c&gt;t']</t>
+          <t>['3148_3185instcgggcgtagaaacgcgtaattagcgtgtcctaaagc', '3165_3220del', '3182_3245inscaggtggtcatgcttcttgtatgacgtatagtctaaaaagtcaaccctgggctaaccttatgt', '3144_3194del', '3160_3253del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89305471067</v>
+        <v>45441.83332152352</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1454g&gt;a']</t>
+          <t>['1338_1383del', '1529_1546insaaaggctccttcaggaa', '1312_1398insgtgagtctgtgcggtccaactaggttggtgacatgagcgcaattcacaagcgacagaattggcattgagcatcagaatcgcttgat', '1304_1367insgggcgctagtaatacaatcgcgaaagggaagcactgaaagagcgcatgtttgaagagtgtctg', '1378_1422del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['225_225del']</t>
+          <t>['215_357del', '171_289inscgcccgtgagtatgtaatcatcgcgaggtgacggtcattctgacttaagcccccgatgtgtgcggaccaatagactgctaccacatcatcaacgtagtcgtgcgaatgctgtacgggt', '224_264del', '197_217del', '210_346del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89305473385</v>
+        <v>45441.83332154235</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1496t&gt;a']</t>
+          <t>['1485_1530insaacctacaggggggagtctccaaccacaccccggcgctactgagt', '1358_1432instggctactactagcagattggatgacacgaccgtatgtgtacagattcgacgatgggccgccttaattcacaag', '1492_1579del', '1355_1469del', '1327_1369instagctctatgaagtaagcaaaagcacaggtgttattgcctcg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3157_3160insgtc']</t>
+          <t>['3156_3209instacatggaacacgccgccttcgtcccagggtttgactaggagtcttagagcct', '3169_3297del', '3106_3135del', '3123_3188del', '3092_3134insacataaggctaggagggcggcatctcgcatgcgaggctgaaa']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89305475121</v>
+        <v>45441.83332155976</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['216_216del']</t>
+          <t>['175_273insactggagtgattacgcatttcaagtggcgtatgtgctgaggatcgtaaacttgaaggtgattctcggacagtaactattcccggcggtatactttagt', '203_269instatgtcataccgttaaacacgcccgggccaccgcagacaagccttatgtcgaatgcggattcacgc', '244_340inscagacagagagtagttcatagcacatgctgcttctacacgtacctctaaacttcactcgttaccccgattctcgtgtgataacgtcacaacaatgc', '152_255del', '239_359insggagccccatcggcaacttttgagtgagagcacagtctcagtgggtagaagtcggagaatgtacgaccgtagccacgagtggacgggggacgttagtactgtatgtctgaccgacgaatc']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3116c&gt;g']</t>
+          <t>['3089_3174del', '3103_3138instgaaactttggcggcgcctaagcgcctatagctga', '3118_3138del', '3079_3137del', '3164_3207instcccgaacgtaagctcttataatcgtgccctcattgccttgct']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89305477437</v>
+        <v>45441.83332158286</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1330_1334del']</t>
+          <t>['1520_1637del', '1355_1429del', '1297_1365insgtgccgacgctttggtaggcgcgccgcctcagacggccttccactttgtaacttaaaatatgcgaaag', '1512_1624del', '1376_1486del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['198_200insat']</t>
+          <t>['223_238insctccggtcggctact', '190_245del', '202_295insatcgctccatacgcctgtggtatggccagaacaccactataggccgatccccttaaaatgctcaggggtactactcatagaagagcaggtctt', '249_322del', '221_333insccatagatgctgacgagtctatctgtaggacagttagatatccttcaccccaattacacgggagtcaacgcaatgggacttcatcaccttaactctggtgtggggcgttcga']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3129a&gt;g']</t>
+          <t>['3125_3223del', '3108_3149insacacgaggcttaaagtcgatacaatgcgaagctattaaggg', '3118_3219instgcgggttttcaagaactcacgcgtgaataggtcgtctaagctacctggaacactgaccaagttacacgagtcgttaacgcttgtcgagctcactttccag', '3145_3184del', '3163_3207del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89305479173</v>
+        <v>45441.8333216002</v>
       </c>
     </row>
   </sheetData>
